--- a/VolumeBreakouts_SNOW_3.xlsx
+++ b/VolumeBreakouts_SNOW_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Value</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Average Return (%)</t>
   </si>
   <si>
+    <t>Max Return (%)</t>
+  </si>
+  <si>
     <t>T-Stat</t>
   </si>
   <si>
@@ -87,6 +90,12 @@
     <t>30D</t>
   </si>
   <si>
+    <t>Average Returns</t>
+  </si>
+  <si>
+    <t>Positive Average Returns</t>
+  </si>
+  <si>
     <t>Adj Close</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
   </si>
   <si>
     <t>Daily Return (%)</t>
+  </si>
+  <si>
+    <t>Next Day Close</t>
   </si>
   <si>
     <t>1D Return (%)</t>
@@ -663,217 +675,488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>-1.153026742975003</v>
+      </c>
+      <c r="C4">
+        <v>32.70601965869094</v>
+      </c>
+      <c r="D4">
+        <v>-0.9309852345785249</v>
+      </c>
+      <c r="E4">
+        <v>15.73175216970345</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="H4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>-2.004305749759645</v>
+      </c>
+      <c r="C5">
+        <v>29.67782587773493</v>
+      </c>
+      <c r="D5">
+        <v>-1.45347788843685</v>
+      </c>
+      <c r="E5">
+        <v>10.37473428195887</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>-2.161393952055524</v>
+      </c>
+      <c r="C6">
+        <v>34.52602502857478</v>
+      </c>
+      <c r="D6">
+        <v>-1.181427732430929</v>
+      </c>
+      <c r="E6">
+        <v>12.67298093518605</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>-3.125077864965331</v>
+      </c>
+      <c r="C7">
+        <v>16.24854103965752</v>
+      </c>
+      <c r="D7">
+        <v>-1.667777990191235</v>
+      </c>
+      <c r="E7">
+        <v>9.417504816129171</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>-0.9592961707595928</v>
+      </c>
+      <c r="C8">
+        <v>24.52166054740169</v>
+      </c>
+      <c r="D8">
+        <v>-0.4673370685454786</v>
+      </c>
+      <c r="E8">
+        <v>30.34834004839317</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>-0.320501462601361</v>
+      </c>
+      <c r="C9">
+        <v>21.37710268392514</v>
+      </c>
+      <c r="D9">
+        <v>-0.1568253425924252</v>
+      </c>
+      <c r="E9">
+        <v>94.90563311797925</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>-0.715514411062993</v>
+      </c>
+      <c r="C10">
+        <v>23.17477848603597</v>
+      </c>
+      <c r="D10">
+        <v>-0.3070027688572495</v>
+      </c>
+      <c r="E10">
+        <v>47.79778165671431</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>-0.8804835573116699</v>
+      </c>
+      <c r="C11">
+        <v>24.79983910467924</v>
+      </c>
+      <c r="D11">
+        <v>-0.381331152070532</v>
+      </c>
+      <c r="E11">
+        <v>34.8869531924401</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>0.221440998986224</v>
-      </c>
-      <c r="C2">
-        <v>0.1371382375140133</v>
-      </c>
-      <c r="D2">
-        <v>-81.91405859152373</v>
-      </c>
-      <c r="E2">
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-2.942666003533379</v>
+      </c>
+      <c r="C18">
+        <v>1.847056256149578</v>
+      </c>
+      <c r="D18">
+        <v>-2.707119492519949</v>
+      </c>
+      <c r="E18">
+        <v>5.221504336178362</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="H18">
         <v>19</v>
       </c>
-      <c r="F2">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="G2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>0.647332186868934</v>
-      </c>
-      <c r="C3">
-        <v>0.3177581014777235</v>
-      </c>
-      <c r="D3">
-        <v>-30.19898638826577</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="G3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="B19">
+        <v>-3.728030497541244</v>
+      </c>
+      <c r="C19">
+        <v>6.447922725814485</v>
+      </c>
+      <c r="D19">
+        <v>-2.289058621001316</v>
+      </c>
+      <c r="E19">
+        <v>5.577781508835048</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-3.329741985183307</v>
+      </c>
+      <c r="C20">
+        <v>11.14338458229438</v>
+      </c>
+      <c r="D20">
+        <v>-1.718498828895026</v>
+      </c>
+      <c r="E20">
+        <v>6.48210618435421</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-2.11217910159903</v>
+      </c>
+      <c r="C21">
+        <v>13.3530132637887</v>
+      </c>
+      <c r="D21">
+        <v>-0.8524360825566333</v>
+      </c>
+      <c r="E21">
+        <v>11.95730127993001</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="H21">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>0.01094318650376399</v>
-      </c>
-      <c r="C4">
-        <v>0.004534549839041105</v>
-      </c>
-      <c r="D4">
-        <v>-2097.257358681897</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="G4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>-0.6747632870887742</v>
-      </c>
-      <c r="C5">
-        <v>-0.2391895454292643</v>
-      </c>
-      <c r="D5">
-        <v>39.24117612195265</v>
-      </c>
-      <c r="E5">
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-0.7799832064011277</v>
+      </c>
+      <c r="C22">
+        <v>19.3247301154891</v>
+      </c>
+      <c r="D22">
+        <v>-0.3349928045427805</v>
+      </c>
+      <c r="E22">
+        <v>20.95030440101789</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="H22">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="G5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>0.8694814197256374</v>
-      </c>
-      <c r="C6">
-        <v>0.2757668411534122</v>
-      </c>
-      <c r="D6">
-        <v>-32.82848655901865</v>
-      </c>
-      <c r="E6">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="G6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>2.559610509475585</v>
-      </c>
-      <c r="C7">
-        <v>0.7850353537407849</v>
-      </c>
-      <c r="D7">
-        <v>-12.39309729864104</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="G7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>3.47570028464665</v>
-      </c>
-      <c r="C8">
-        <v>1.180703409452837</v>
-      </c>
-      <c r="D8">
-        <v>-7.941068638394277</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="G8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="B23">
+        <v>-1.397356599925012</v>
+      </c>
+      <c r="C23">
+        <v>16.29124746900956</v>
+      </c>
+      <c r="D23">
+        <v>-0.5834680787076076</v>
+      </c>
+      <c r="E23">
+        <v>11.79999382443473</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
-        <v>2.72670332721528</v>
-      </c>
-      <c r="C9">
-        <v>0.9069591602263229</v>
-      </c>
-      <c r="D9">
-        <v>-14.98548319670796</v>
-      </c>
-      <c r="E9">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>0.4871794871794872</v>
-      </c>
-      <c r="G9">
-        <v>39</v>
+      <c r="B24">
+        <v>-2.19932179857494</v>
+      </c>
+      <c r="C24">
+        <v>23.17477848603597</v>
+      </c>
+      <c r="D24">
+        <v>-0.7190949139934962</v>
+      </c>
+      <c r="E24">
+        <v>9.035651619881307</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="H24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-0.6231276244777955</v>
+      </c>
+      <c r="C25">
+        <v>21.75220270846601</v>
+      </c>
+      <c r="D25">
+        <v>-0.1899488071857795</v>
+      </c>
+      <c r="E25">
+        <v>31.487692766332</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="H25">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -883,69 +1166,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -977,34 +1263,37 @@
         <v>0.7974744891057428</v>
       </c>
       <c r="K2">
-        <v>0.7974744891057428</v>
+        <v>239.7299957275391</v>
       </c>
       <c r="L2">
-        <v>-7.982263716303373</v>
+        <v>-3.722893282112826</v>
       </c>
       <c r="M2">
-        <v>-4.355841014598716</v>
+        <v>-14.06023875776544</v>
       </c>
       <c r="N2">
-        <v>-14.07274447894379</v>
+        <v>-4.493976884098895</v>
       </c>
       <c r="O2">
-        <v>-18.60351181093407</v>
+        <v>-12.97188877580635</v>
       </c>
       <c r="P2">
-        <v>-18.26418460248813</v>
+        <v>-12.87148716938065</v>
       </c>
       <c r="Q2">
-        <v>-6.461311577121309</v>
+        <v>-4.903617154163529</v>
       </c>
       <c r="R2">
-        <v>-11.66453963149386</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>-8.879518317410266</v>
+      </c>
+      <c r="S2">
+        <v>-6.530118275837726</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1036,34 +1325,37 @@
         <v>-3.722893282112827</v>
       </c>
       <c r="K3">
-        <v>-3.722893282112827</v>
+        <v>213.9900054931641</v>
       </c>
       <c r="L3">
-        <v>-2.95510791718856</v>
+        <v>-10.73707533187851</v>
       </c>
       <c r="M3">
-        <v>-7.632739525765276</v>
+        <v>-4.050386529900016</v>
       </c>
       <c r="N3">
-        <v>-17.33448423188308</v>
+        <v>-4.058731031137847</v>
       </c>
       <c r="O3">
-        <v>-19.75028055065057</v>
+        <v>-7.888036015656601</v>
       </c>
       <c r="P3">
-        <v>-21.04014779028238</v>
+        <v>-1.973051270945191</v>
       </c>
       <c r="Q3">
-        <v>-12.22861222061774</v>
+        <v>-3.090972567213493</v>
       </c>
       <c r="R3">
-        <v>-16.27200698689658</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>-2.644640408326806</v>
+      </c>
+      <c r="S3">
+        <v>-4.44666441133872</v>
+      </c>
+      <c r="T3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1095,34 +1387,37 @@
         <v>-10.73707533187851</v>
       </c>
       <c r="K4">
-        <v>-10.73707533187851</v>
+        <v>230.0200042724609</v>
       </c>
       <c r="L4">
-        <v>-14.06023875776544</v>
+        <v>7.491003489791001</v>
       </c>
       <c r="M4">
-        <v>-21.3763475269909</v>
+        <v>6.13112518360425</v>
       </c>
       <c r="N4">
-        <v>-20.64156857525744</v>
+        <v>11.57530182617017</v>
       </c>
       <c r="O4">
-        <v>-28.54375910077954</v>
+        <v>3.159023474604231</v>
       </c>
       <c r="P4">
-        <v>-30.08004769537184</v>
+        <v>4.439459673878778</v>
       </c>
       <c r="Q4">
-        <v>-21.45714960344512</v>
+        <v>10.29019507846842</v>
       </c>
       <c r="R4">
-        <v>-25.09450749810761</v>
-      </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>11.25753339852136</v>
+      </c>
+      <c r="S4">
+        <v>5.247906649499014</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1154,34 +1449,37 @@
         <v>-6.525093496575285</v>
       </c>
       <c r="K5">
-        <v>-6.525093496575285</v>
+        <v>206.0399932861328</v>
       </c>
       <c r="L5">
-        <v>-8.498167617802533</v>
+        <v>3.102480515341482</v>
       </c>
       <c r="M5">
-        <v>-12.94271675839113</v>
+        <v>-3.012404485583178</v>
       </c>
       <c r="N5">
-        <v>-13.65364922665684</v>
+        <v>-5.804639240041434</v>
       </c>
       <c r="O5">
-        <v>-15.45816388447784</v>
+        <v>15.37229873081141</v>
       </c>
       <c r="P5">
-        <v>-14.50695343833556</v>
+        <v>22.67313770461812</v>
       </c>
       <c r="Q5">
-        <v>-12.84019652745417</v>
+        <v>21.37710268392514</v>
       </c>
       <c r="R5">
-        <v>-4.199429294972279</v>
-      </c>
-      <c r="S5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>20.39632231413162</v>
+      </c>
+      <c r="S5">
+        <v>24.79983910467924</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1213,34 +1511,37 @@
         <v>11.55439830285696</v>
       </c>
       <c r="K6">
-        <v>11.55439830285696</v>
+        <v>212.6499938964844</v>
       </c>
       <c r="L6">
-        <v>9.724109173132799</v>
+        <v>1.266721431371602</v>
       </c>
       <c r="M6">
-        <v>1.917109462115829</v>
+        <v>6.447922725814485</v>
       </c>
       <c r="N6">
-        <v>-9.326823777488258</v>
+        <v>11.14338458229438</v>
       </c>
       <c r="O6">
-        <v>-10.88524612244214</v>
+        <v>13.3530132637887</v>
       </c>
       <c r="P6">
-        <v>-9.774855831851481</v>
+        <v>19.3247301154891</v>
       </c>
       <c r="Q6">
-        <v>-7.448540676956528</v>
+        <v>16.29124746900956</v>
       </c>
       <c r="R6">
-        <v>-11.31804069126524</v>
-      </c>
-      <c r="S6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>18.23895746991423</v>
+      </c>
+      <c r="S6">
+        <v>17.94370764803274</v>
+      </c>
+      <c r="T6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1272,34 +1573,37 @@
         <v>4.208286459717048</v>
       </c>
       <c r="K7">
-        <v>4.208286459717048</v>
+        <v>238.0299987792969</v>
       </c>
       <c r="L7">
-        <v>6.605490841508654</v>
+        <v>-2.904342359557206</v>
       </c>
       <c r="M7">
-        <v>6.328069262831582</v>
+        <v>-1.770343237178789</v>
       </c>
       <c r="N7">
-        <v>30.23267464013488</v>
+        <v>-1.056494555322837</v>
       </c>
       <c r="O7">
-        <v>22.67313770461812</v>
+        <v>-1.856001593412236</v>
       </c>
       <c r="P7">
-        <v>6.795900952878298</v>
+        <v>1.73363251307874</v>
       </c>
       <c r="Q7">
-        <v>5.923777787095852</v>
+        <v>0.7913532489115314</v>
       </c>
       <c r="R7">
-        <v>3.710123036007085</v>
-      </c>
-      <c r="S7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>-3.226591311546326</v>
+      </c>
+      <c r="S7">
+        <v>8.937386990660489</v>
+      </c>
+      <c r="T7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1331,34 +1635,37 @@
         <v>6.07177960733345</v>
       </c>
       <c r="K8">
-        <v>6.07177960733345</v>
+        <v>273.3699951171875</v>
       </c>
       <c r="L8">
-        <v>7.097691278383556</v>
+        <v>-3.939135562588652</v>
       </c>
       <c r="M8">
-        <v>8.337138155594115</v>
+        <v>-2.667087179710453</v>
       </c>
       <c r="N8">
-        <v>11.04694219855897</v>
+        <v>-3.545574816916506</v>
       </c>
       <c r="O8">
-        <v>7.5428886038029</v>
+        <v>-2.312174742686875</v>
       </c>
       <c r="P8">
-        <v>19.04621750230637</v>
+        <v>-1.127975123529281</v>
       </c>
       <c r="Q8">
-        <v>14.90289040909289</v>
+        <v>6.947087098210135</v>
       </c>
       <c r="R8">
-        <v>14.61597094825795</v>
-      </c>
-      <c r="S8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>11.77876910284343</v>
+      </c>
+      <c r="S8">
+        <v>13.88010466785564</v>
+      </c>
+      <c r="T8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1390,34 +1697,37 @@
         <v>-4.573268284500475</v>
       </c>
       <c r="K9">
-        <v>-4.573268284500475</v>
+        <v>276.4400024414062</v>
       </c>
       <c r="L9">
-        <v>-4.760709490094861</v>
+        <v>3.663699899396252</v>
       </c>
       <c r="M9">
-        <v>-8.524278444855483</v>
+        <v>5.512423950672921</v>
       </c>
       <c r="N9">
-        <v>-3.895775238068</v>
+        <v>11.63984567607012</v>
       </c>
       <c r="O9">
-        <v>0.3575237854384072</v>
+        <v>16.24854103965752</v>
       </c>
       <c r="P9">
-        <v>0.6605767444132216</v>
+        <v>19.41725584880164</v>
       </c>
       <c r="Q9">
-        <v>6.319275034159189</v>
+        <v>16.27479345676242</v>
       </c>
       <c r="R9">
-        <v>-1.046412449007139</v>
-      </c>
-      <c r="S9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>16.69853996964836</v>
+      </c>
+      <c r="S9">
+        <v>10.50361039398882</v>
+      </c>
+      <c r="T9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1449,34 +1759,37 @@
         <v>7.576825225569372</v>
       </c>
       <c r="K10">
-        <v>7.576825225569372</v>
+        <v>297.7099914550781</v>
       </c>
       <c r="L10">
-        <v>8.490604919862754</v>
+        <v>-2.473307367166662</v>
       </c>
       <c r="M10">
-        <v>9.23599800721151</v>
+        <v>-2.427440026552671</v>
       </c>
       <c r="N10">
-        <v>6.629876717639815</v>
+        <v>0.5339726235558986</v>
       </c>
       <c r="O10">
-        <v>10.20615203723765</v>
+        <v>4.350389292555255</v>
       </c>
       <c r="P10">
-        <v>13.79258877695799</v>
+        <v>5.745914127700755</v>
       </c>
       <c r="Q10">
-        <v>14.20128084781558</v>
+        <v>3.672276451699331</v>
       </c>
       <c r="R10">
-        <v>21.61753377116533</v>
-      </c>
-      <c r="S10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>-0.5044907605500881</v>
+      </c>
+      <c r="S10">
+        <v>2.705883176243357</v>
+      </c>
+      <c r="T10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1508,34 +1821,37 @@
         <v>2.182306485412977</v>
       </c>
       <c r="K11">
-        <v>2.182306485412977</v>
+        <v>301.0199890136719</v>
       </c>
       <c r="L11">
-        <v>2.230363386859802</v>
+        <v>-1.094140635144638</v>
       </c>
       <c r="M11">
-        <v>8.167186048660668</v>
+        <v>0.8345682582499988</v>
       </c>
       <c r="N11">
-        <v>9.478419461696275</v>
+        <v>4.517824782077824</v>
       </c>
       <c r="O11">
-        <v>10.87836239261202</v>
+        <v>6.482661433573106</v>
       </c>
       <c r="P11">
-        <v>6.947087098210125</v>
+        <v>3.535396429197766</v>
       </c>
       <c r="Q11">
-        <v>15.86341350297147</v>
+        <v>-3.466409758164617</v>
       </c>
       <c r="R11">
-        <v>18.76146999299193</v>
-      </c>
-      <c r="S11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>1.731555415799612</v>
+      </c>
+      <c r="S11">
+        <v>7.721373263914827</v>
+      </c>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1567,34 +1883,37 @@
         <v>-0.2225523136601959</v>
       </c>
       <c r="K12">
-        <v>-0.2225523136601959</v>
+        <v>310.0700073242188</v>
       </c>
       <c r="L12">
-        <v>-0.3949638460662763</v>
+        <v>-3.943612438087981</v>
       </c>
       <c r="M12">
-        <v>1.337345116397248</v>
+        <v>-2.642502819661716</v>
       </c>
       <c r="N12">
-        <v>5.184258980454981</v>
+        <v>-1.960962457137833</v>
       </c>
       <c r="O12">
-        <v>5.745914127700757</v>
+        <v>-5.910776732898385</v>
       </c>
       <c r="P12">
-        <v>15.5126046492428</v>
+        <v>-2.874844835882925</v>
       </c>
       <c r="Q12">
-        <v>12.75673786830858</v>
+        <v>3.336437403509899</v>
       </c>
       <c r="R12">
-        <v>16.53850289674066</v>
-      </c>
-      <c r="S12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>5.260226650695675</v>
+      </c>
+      <c r="S12">
+        <v>9.615864225134271</v>
+      </c>
+      <c r="T12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1626,34 +1945,37 @@
         <v>15.8456587714781</v>
       </c>
       <c r="K13">
-        <v>15.8456587714781</v>
+        <v>345.1099853515625</v>
       </c>
       <c r="L13">
-        <v>5.917978904605992</v>
+        <v>-4.210617708208481</v>
       </c>
       <c r="M13">
-        <v>1.384515317014934</v>
+        <v>-5.168201171387779</v>
       </c>
       <c r="N13">
-        <v>-9.477387241382695</v>
+        <v>0.2886667448777726</v>
       </c>
       <c r="O13">
-        <v>-0.2215541771126817</v>
+        <v>-9.797931584482182</v>
       </c>
       <c r="P13">
-        <v>2.021856440700298</v>
+        <v>-3.069833905869687</v>
       </c>
       <c r="Q13">
-        <v>3.797174429276895</v>
+        <v>-5.975907308827845</v>
       </c>
       <c r="R13">
-        <v>7.826293213522018</v>
-      </c>
-      <c r="S13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>-16.82025266704812</v>
+      </c>
+      <c r="S13">
+        <v>-19.62085119377112</v>
+      </c>
+      <c r="T13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1685,34 +2007,37 @@
         <v>0.5699304631960445</v>
       </c>
       <c r="K14">
-        <v>0.5699304631960445</v>
+        <v>224.0200042724609</v>
       </c>
       <c r="L14">
-        <v>-0.3651288140223197</v>
+        <v>-15.36514329737419</v>
       </c>
       <c r="M14">
-        <v>4.773778777460747</v>
+        <v>-20.79413957355867</v>
       </c>
       <c r="N14">
-        <v>-11.76999918619792</v>
+        <v>-21.58374111446058</v>
       </c>
       <c r="O14">
-        <v>-9.819088400846098</v>
+        <v>-25.2559618749915</v>
       </c>
       <c r="P14">
-        <v>-6.720470350973651</v>
+        <v>-16.03762762352131</v>
       </c>
       <c r="Q14">
-        <v>0.4783091525860428</v>
+        <v>-12.4900817007292</v>
       </c>
       <c r="R14">
-        <v>-7.991515162573359</v>
-      </c>
-      <c r="S14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>-19.87230557193393</v>
+      </c>
+      <c r="S14">
+        <v>-18.99580577865884</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1744,34 +2069,37 @@
         <v>-15.3651432973742</v>
       </c>
       <c r="K15">
-        <v>-15.3651432973742</v>
+        <v>209.6499938964844</v>
       </c>
       <c r="L15">
-        <v>-14.8827834665436</v>
+        <v>-6.414610348145183</v>
       </c>
       <c r="M15">
-        <v>-16.98965860388325</v>
+        <v>-13.84697959148922</v>
       </c>
       <c r="N15">
-        <v>-26.47850498927829</v>
+        <v>-11.6819916390665</v>
       </c>
       <c r="O15">
-        <v>-27.25206127934395</v>
+        <v>-6.771715864488169</v>
       </c>
       <c r="P15">
-        <v>-16.49768700917836</v>
+        <v>1.584681271338686</v>
       </c>
       <c r="Q15">
-        <v>-11.48953027648733</v>
+        <v>2.281046564099071</v>
       </c>
       <c r="R15">
-        <v>-20.71772147223123</v>
-      </c>
-      <c r="S15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>-4.526381214293621</v>
+      </c>
+      <c r="S15">
+        <v>-11.33380899268631</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1803,34 +2131,37 @@
         <v>-4.496498477511479</v>
       </c>
       <c r="K16">
-        <v>-4.496498477511479</v>
+        <v>129.9100036621094</v>
       </c>
       <c r="L16">
-        <v>-2.183137949900604</v>
+        <v>2.452681810332535</v>
       </c>
       <c r="M16">
-        <v>-13.63574667875563</v>
+        <v>0.6703457836465014</v>
       </c>
       <c r="N16">
-        <v>-9.815079980578146</v>
+        <v>2.381706782158529</v>
       </c>
       <c r="O16">
-        <v>-23.69719061238267</v>
+        <v>-3.454262442741937</v>
       </c>
       <c r="P16">
-        <v>-31.72150209055509</v>
+        <v>-5.851739447759407</v>
       </c>
       <c r="Q16">
-        <v>-27.60077452686558</v>
+        <v>16.83753180669233</v>
       </c>
       <c r="R16">
-        <v>-40.86096689239227</v>
-      </c>
-      <c r="S16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>22.16087552715324</v>
+      </c>
+      <c r="S16">
+        <v>14.69242048552551</v>
+      </c>
+      <c r="T16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1862,34 +2193,37 @@
         <v>23.06727194119362</v>
       </c>
       <c r="K17">
-        <v>23.06727194119362</v>
+        <v>197.7100067138672</v>
       </c>
       <c r="L17">
-        <v>28.228907942465</v>
+        <v>0.7285550965273117</v>
       </c>
       <c r="M17">
-        <v>21.34775813248648</v>
+        <v>-5.018344286108983</v>
       </c>
       <c r="N17">
-        <v>16.91684123806692</v>
+        <v>-11.78418841790425</v>
       </c>
       <c r="O17">
-        <v>22.09505193218362</v>
+        <v>-4.12166109038306</v>
       </c>
       <c r="P17">
-        <v>36.9905084111839</v>
+        <v>-5.915019707844096</v>
       </c>
       <c r="Q17">
-        <v>24.44050218472626</v>
+        <v>-12.30384860743725</v>
       </c>
       <c r="R17">
-        <v>34.2544479318861</v>
-      </c>
-      <c r="S17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>-13.40941116217587</v>
+      </c>
+      <c r="S17">
+        <v>-10.79070348864057</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1921,34 +2255,37 @@
         <v>0.7285550965273169</v>
       </c>
       <c r="K18">
-        <v>0.7285550965273169</v>
+        <v>186.4299926757812</v>
       </c>
       <c r="L18">
-        <v>23.96388482307832</v>
+        <v>-5.705332889098915</v>
       </c>
       <c r="M18">
-        <v>28.43315809944915</v>
+        <v>-6.560113691905217</v>
       </c>
       <c r="N18">
-        <v>17.21011103781842</v>
+        <v>-13.26184832852169</v>
       </c>
       <c r="O18">
-        <v>19.44058972505418</v>
+        <v>-1.264478233323864</v>
       </c>
       <c r="P18">
-        <v>31.88579940235139</v>
+        <v>-5.062975785596849</v>
       </c>
       <c r="Q18">
-        <v>38.26840976191104</v>
+        <v>-16.48879924964825</v>
       </c>
       <c r="R18">
-        <v>33.63299141062686</v>
-      </c>
-      <c r="S18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>-12.74594676611467</v>
+      </c>
+      <c r="S18">
+        <v>-19.55389325238326</v>
+      </c>
+      <c r="T18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1980,34 +2317,37 @@
         <v>7.795661207458249</v>
       </c>
       <c r="K19">
-        <v>7.795661207458249</v>
+        <v>149.7400054931641</v>
       </c>
       <c r="L19">
-        <v>12.80023142944107</v>
+        <v>-2.791474928839697</v>
       </c>
       <c r="M19">
-        <v>5.182653804064641</v>
+        <v>-11.95143417665784</v>
       </c>
       <c r="N19">
-        <v>-0.07135946461692688</v>
+        <v>-7.251362409628769</v>
       </c>
       <c r="O19">
-        <v>22.00221026444196</v>
+        <v>-7.394183255053285</v>
       </c>
       <c r="P19">
-        <v>4.257186657281098</v>
+        <v>-8.874317556969103</v>
       </c>
       <c r="Q19">
-        <v>-9.094130386332377</v>
+        <v>-6.816411618829409</v>
       </c>
       <c r="R19">
-        <v>-9.939195899967501</v>
-      </c>
-      <c r="S19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>-12.73046057196688</v>
+      </c>
+      <c r="S19">
+        <v>-5.401189579367945</v>
+      </c>
+      <c r="T19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2039,34 +2379,37 @@
         <v>-12.4401302399373</v>
       </c>
       <c r="K20">
-        <v>-12.4401302399373</v>
+        <v>142.1100006103516</v>
       </c>
       <c r="L20">
-        <v>-12.37207248310048</v>
+        <v>5.048789098673429</v>
       </c>
       <c r="M20">
-        <v>-11.65099066535179</v>
+        <v>5.019225758568687</v>
       </c>
       <c r="N20">
-        <v>-22.82063000831364</v>
+        <v>0.7539948859143825</v>
       </c>
       <c r="O20">
-        <v>-14.95033266961853</v>
+        <v>2.690715126030515</v>
       </c>
       <c r="P20">
-        <v>-18.12129416547575</v>
+        <v>3.910414394335028</v>
       </c>
       <c r="Q20">
-        <v>-6.341736019995736</v>
+        <v>5.048789098673429</v>
       </c>
       <c r="R20">
-        <v>-3.447292705741267</v>
-      </c>
-      <c r="S20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>7.68775428025505</v>
+      </c>
+      <c r="S20">
+        <v>5.063576408432038</v>
+      </c>
+      <c r="T20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2098,34 +2441,37 @@
         <v>-16.50107024288901</v>
       </c>
       <c r="K21">
-        <v>-16.50107024288901</v>
+        <v>150.0099945068359</v>
       </c>
       <c r="L21">
-        <v>-15.55720451603</v>
+        <v>1.419776075135427</v>
       </c>
       <c r="M21">
-        <v>-19.74933230896089</v>
+        <v>7.261165552338027</v>
       </c>
       <c r="N21">
-        <v>-13.02993044497487</v>
+        <v>18.45717150688662</v>
       </c>
       <c r="O21">
-        <v>-4.740130358621331</v>
+        <v>15.37420706602307</v>
       </c>
       <c r="P21">
-        <v>-0.5780739299950155</v>
+        <v>24.52166054740169</v>
       </c>
       <c r="Q21">
-        <v>3.636492710913308</v>
+        <v>14.82657841445185</v>
       </c>
       <c r="R21">
-        <v>4.618756934341239</v>
-      </c>
-      <c r="S21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>19.66060517278198</v>
+      </c>
+      <c r="S21">
+        <v>16.32073476571245</v>
+      </c>
+      <c r="T21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2157,34 +2503,37 @@
         <v>4.229440259698536</v>
       </c>
       <c r="K22">
-        <v>4.229440259698536</v>
+        <v>167.2799987792969</v>
       </c>
       <c r="L22">
-        <v>10.23265560003479</v>
+        <v>1.161101936295663</v>
       </c>
       <c r="M22">
-        <v>-5.594886302161994</v>
+        <v>5.956704201232939</v>
       </c>
       <c r="N22">
-        <v>-3.698099036299674</v>
+        <v>2.243593795460436</v>
       </c>
       <c r="O22">
-        <v>0.9092607173744716</v>
+        <v>9.500487818021778</v>
       </c>
       <c r="P22">
-        <v>14.16736039166333</v>
+        <v>8.0067763935018</v>
       </c>
       <c r="Q22">
-        <v>22.05492015434039</v>
+        <v>6.295357779200267</v>
       </c>
       <c r="R22">
-        <v>13.34567228881942</v>
-      </c>
-      <c r="S22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>3.174891134870587</v>
+      </c>
+      <c r="S22">
+        <v>9.331151801420186</v>
+      </c>
+      <c r="T22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2216,34 +2565,37 @@
         <v>10.65881463332716</v>
       </c>
       <c r="K23">
-        <v>10.65881463332716</v>
+        <v>158.5800018310547</v>
       </c>
       <c r="L23">
-        <v>6.387093459698079</v>
+        <v>-0.6204207856884671</v>
       </c>
       <c r="M23">
-        <v>9.949701616193041</v>
+        <v>-2.017923840888619</v>
       </c>
       <c r="N23">
-        <v>5.591591106443983</v>
+        <v>3.94183931655316</v>
       </c>
       <c r="O23">
-        <v>0.1129355262310172</v>
+        <v>4.449451976461093</v>
       </c>
       <c r="P23">
-        <v>-2.182307026319985</v>
+        <v>9.870275914695368</v>
       </c>
       <c r="Q23">
-        <v>7.245120320259213</v>
+        <v>15.60443238301787</v>
       </c>
       <c r="R23">
-        <v>8.514113575403481</v>
-      </c>
-      <c r="S23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>23.17477848603597</v>
+      </c>
+      <c r="S23">
+        <v>21.75220270846601</v>
+      </c>
+      <c r="T23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2275,34 +2627,37 @@
         <v>7.049957127086603</v>
       </c>
       <c r="K24">
-        <v>7.049957127086603</v>
+        <v>185.9700012207031</v>
       </c>
       <c r="L24">
-        <v>9.40250034222203</v>
+        <v>-0.9111208023287541</v>
       </c>
       <c r="M24">
-        <v>11.10584579101945</v>
+        <v>0.3303550725556749</v>
       </c>
       <c r="N24">
-        <v>15.11991294918336</v>
+        <v>-0.1971414810457019</v>
       </c>
       <c r="O24">
-        <v>18.35035345486289</v>
+        <v>7.022596147123091</v>
       </c>
       <c r="P24">
-        <v>30.09843326098824</v>
+        <v>4.854007334755796</v>
       </c>
       <c r="Q24">
-        <v>31.79775331466132</v>
+        <v>6.031547189888353</v>
       </c>
       <c r="R24">
-        <v>22.48254121829927</v>
-      </c>
-      <c r="S24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>4.619572552260216</v>
+      </c>
+      <c r="S24">
+        <v>0.1811656063238772</v>
+      </c>
+      <c r="T24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2334,34 +2689,37 @@
         <v>-1.722000940186041</v>
       </c>
       <c r="K25">
-        <v>-1.722000940186041</v>
+        <v>188.2799987792969</v>
       </c>
       <c r="L25">
-        <v>-0.4027162799450368</v>
+        <v>-18.1391309655231</v>
       </c>
       <c r="M25">
-        <v>6.378055065870525</v>
+        <v>-18.81739077360734</v>
       </c>
       <c r="N25">
-        <v>1.06780006045315</v>
+        <v>-27.39130434782609</v>
       </c>
       <c r="O25">
-        <v>7.637592607456356</v>
+        <v>-29.43043584408968</v>
       </c>
       <c r="P25">
-        <v>11.51515151515152</v>
+        <v>-29.11304639733356</v>
       </c>
       <c r="Q25">
-        <v>11.87858641474944</v>
+        <v>-30.41739422342052</v>
       </c>
       <c r="R25">
-        <v>22.32740919774983</v>
-      </c>
-      <c r="S25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>-34.20000159222147</v>
+      </c>
+      <c r="S25">
+        <v>-30.71738865064538</v>
+      </c>
+      <c r="T25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2393,34 +2751,37 @@
         <v>-18.1391309655231</v>
       </c>
       <c r="K26">
-        <v>-18.1391309655231</v>
+        <v>186.7200012207031</v>
       </c>
       <c r="L26">
-        <v>-19.54877589994125</v>
+        <v>-0.8285519272933447</v>
       </c>
       <c r="M26">
-        <v>-16.54994998049537</v>
+        <v>-5.497135208529491</v>
       </c>
       <c r="N26">
-        <v>-20.22033950029794</v>
+        <v>-10.53749546766633</v>
       </c>
       <c r="O26">
-        <v>-13.7240514753228</v>
+        <v>-15.59379689861139</v>
       </c>
       <c r="P26">
-        <v>-3.762012182229124</v>
+        <v>-15.87529189687626</v>
       </c>
       <c r="Q26">
-        <v>-7.619841502050029</v>
+        <v>-14.17038073547882</v>
       </c>
       <c r="R26">
-        <v>0.08505404330343413</v>
-      </c>
-      <c r="S26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>-18.28128234125</v>
+      </c>
+      <c r="S26">
+        <v>-15.78500181293347</v>
+      </c>
+      <c r="T26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2452,34 +2813,37 @@
         <v>-0.8285519272933417</v>
       </c>
       <c r="K27">
-        <v>-0.8285519272933417</v>
+        <v>177.9299926757812</v>
       </c>
       <c r="L27">
-        <v>-18.81739077360734</v>
+        <v>-4.707588093110647</v>
       </c>
       <c r="M27">
-        <v>-18.58376026761365</v>
+        <v>-10.1595978452681</v>
       </c>
       <c r="N27">
-        <v>-19.65576328548788</v>
+        <v>-13.02485388026133</v>
       </c>
       <c r="O27">
-        <v>-16.23149110205152</v>
+        <v>-15.93294762505678</v>
       </c>
       <c r="P27">
-        <v>-6.611984124876324</v>
+        <v>-14.82969272728135</v>
       </c>
       <c r="Q27">
-        <v>-9.363620115767112</v>
+        <v>-14.03170350094084</v>
       </c>
       <c r="R27">
-        <v>0.05894679277196335</v>
-      </c>
-      <c r="S27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>-17.06298222047087</v>
+      </c>
+      <c r="S27">
+        <v>-18.60540127787455</v>
+      </c>
+      <c r="T27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2511,34 +2875,37 @@
         <v>-4.707588093110648</v>
       </c>
       <c r="K28">
-        <v>-4.707588093110648</v>
+        <v>167.75</v>
       </c>
       <c r="L28">
-        <v>-5.497135208529491</v>
+        <v>-5.721347212288673</v>
       </c>
       <c r="M28">
-        <v>-22.95067842244745</v>
+        <v>-6.142861308209886</v>
       </c>
       <c r="N28">
-        <v>-22.74326144677518</v>
+        <v>-8.789973603914646</v>
       </c>
       <c r="O28">
-        <v>-23.72685459239973</v>
+        <v>-12.15084359418977</v>
       </c>
       <c r="P28">
-        <v>-18.66429093815817</v>
+        <v>-11.12234817105487</v>
       </c>
       <c r="Q28">
-        <v>-12.13767344713693</v>
+        <v>-12.21828310530477</v>
       </c>
       <c r="R28">
-        <v>-7.865577270851098</v>
-      </c>
-      <c r="S28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>-12.56111491301641</v>
+      </c>
+      <c r="S28">
+        <v>-15.52857346224365</v>
+      </c>
+      <c r="T28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2570,34 +2937,37 @@
         <v>-5.363043163485026</v>
       </c>
       <c r="K29">
-        <v>-5.363043163485026</v>
+        <v>156.1600036621094</v>
       </c>
       <c r="L29">
-        <v>-4.996622547689689</v>
+        <v>1.022125638723643</v>
       </c>
       <c r="M29">
-        <v>-6.337852569433544</v>
+        <v>-2.484148203133984</v>
       </c>
       <c r="N29">
-        <v>-0.8276084727935951</v>
+        <v>-11.90322741449012</v>
       </c>
       <c r="O29">
-        <v>-2.021932151245476</v>
+        <v>-15.11838196426553</v>
       </c>
       <c r="P29">
-        <v>1.363935626921098</v>
+        <v>-17.73192090660384</v>
       </c>
       <c r="Q29">
-        <v>4.1574004559644</v>
+        <v>-19.26510442912555</v>
       </c>
       <c r="R29">
-        <v>-2.993413297620007</v>
-      </c>
-      <c r="S29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>-7.640055258571716</v>
+      </c>
+      <c r="S29">
+        <v>-11.07516814231797</v>
+      </c>
+      <c r="T29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2629,34 +2999,37 @@
         <v>-3.38418189126497</v>
       </c>
       <c r="K30">
-        <v>-3.38418189126497</v>
+        <v>136.9299926757812</v>
       </c>
       <c r="L30">
-        <v>-8.104466946327038</v>
+        <v>0.5507416950635383</v>
       </c>
       <c r="M30">
-        <v>-11.90322741449013</v>
+        <v>0.6021496316063344</v>
       </c>
       <c r="N30">
-        <v>-17.4866709793889</v>
+        <v>-3.649571324142054</v>
       </c>
       <c r="O30">
-        <v>-12.63232376866551</v>
+        <v>-6.616239529610659</v>
       </c>
       <c r="P30">
-        <v>-13.68448438360615</v>
+        <v>-8.356579700453528</v>
       </c>
       <c r="Q30">
-        <v>-10.70164414702869</v>
+        <v>4.839192209658328</v>
       </c>
       <c r="R30">
-        <v>-8.240691789330224</v>
-      </c>
-      <c r="S30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>0.9399428013874316</v>
+      </c>
+      <c r="S30">
+        <v>0.02203997628153442</v>
+      </c>
+      <c r="T30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2688,34 +3061,37 @@
         <v>-1.978107090414005</v>
       </c>
       <c r="K31">
-        <v>-1.978107090414005</v>
+        <v>132.0399932861328</v>
       </c>
       <c r="L31">
-        <v>-1.927992062264505</v>
+        <v>-1.675478525943408</v>
       </c>
       <c r="M31">
-        <v>-9.379856215853321</v>
+        <v>-2.293533938677822</v>
       </c>
       <c r="N31">
-        <v>-17.46666600396142</v>
+        <v>-2.948835842623462</v>
       </c>
       <c r="O31">
-        <v>-16.56415294663387</v>
+        <v>-5.711513085869524</v>
       </c>
       <c r="P31">
-        <v>-15.58866278372726</v>
+        <v>-0.2755194993562538</v>
       </c>
       <c r="Q31">
-        <v>-13.47294076886011</v>
+        <v>6.500864861707914</v>
       </c>
       <c r="R31">
-        <v>-11.16624005243928</v>
-      </c>
-      <c r="S31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>1.087204398585633</v>
+      </c>
+      <c r="S31">
+        <v>-3.306268079972921</v>
+      </c>
+      <c r="T31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2747,34 +3123,37 @@
         <v>2.380230013062268</v>
       </c>
       <c r="K32">
-        <v>2.380230013062268</v>
+        <v>115.2099990844727</v>
       </c>
       <c r="L32">
-        <v>2.769745427152626</v>
+        <v>-14.69717076331907</v>
       </c>
       <c r="M32">
-        <v>6.09583214517353</v>
+        <v>-14.21590204006375</v>
       </c>
       <c r="N32">
-        <v>17.34144165862908</v>
+        <v>-17.39967453339015</v>
       </c>
       <c r="O32">
-        <v>3.589501841166287</v>
+        <v>-17.25899450611278</v>
       </c>
       <c r="P32">
-        <v>7.514722660096873</v>
+        <v>-16.34088560178559</v>
       </c>
       <c r="Q32">
-        <v>-0.0296140215502394</v>
+        <v>-15.57826247286837</v>
       </c>
       <c r="R32">
-        <v>-1.774547230113632</v>
-      </c>
-      <c r="S32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>-16.71109144292155</v>
+      </c>
+      <c r="S32">
+        <v>-18.20672055559799</v>
+      </c>
+      <c r="T32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2806,34 +3185,37 @@
         <v>-14.69717076331907</v>
       </c>
       <c r="K33">
-        <v>-14.69717076331907</v>
+        <v>115.8600006103516</v>
       </c>
       <c r="L33">
-        <v>-12.66676721983634</v>
+        <v>0.5641884654493585</v>
       </c>
       <c r="M33">
-        <v>-9.31916858157159</v>
+        <v>2.421665599946493</v>
       </c>
       <c r="N33">
-        <v>-5.2549337745332</v>
+        <v>-0.9287385672485672</v>
       </c>
       <c r="O33">
-        <v>-7.238323739666375</v>
+        <v>-5.772069767141553</v>
       </c>
       <c r="P33">
-        <v>-11.09653342062286</v>
+        <v>-1.336690328760619</v>
       </c>
       <c r="Q33">
-        <v>-11.26771231211793</v>
+        <v>-4.2878243908189</v>
       </c>
       <c r="R33">
-        <v>-16.62324128588156</v>
-      </c>
-      <c r="S33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>-1.119695274523444</v>
+      </c>
+      <c r="S33">
+        <v>-0.4253084520990769</v>
+      </c>
+      <c r="T33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2865,34 +3247,37 @@
         <v>0.5641884654493667</v>
       </c>
       <c r="K34">
-        <v>0.5641884654493667</v>
+        <v>118</v>
       </c>
       <c r="L34">
-        <v>-14.21590204006375</v>
+        <v>1.847056256149578</v>
       </c>
       <c r="M34">
-        <v>-9.512647074701452</v>
+        <v>-0.2761951433958721</v>
       </c>
       <c r="N34">
-        <v>-6.87244015760915</v>
+        <v>-1.406867982764654</v>
       </c>
       <c r="O34">
-        <v>-3.264587244138661</v>
+        <v>-5.092354129809808</v>
       </c>
       <c r="P34">
-        <v>-10.18604603848716</v>
+        <v>-2.606597839246959</v>
       </c>
       <c r="Q34">
-        <v>-10.77397368931298</v>
+        <v>-2.244086363217916</v>
       </c>
       <c r="R34">
-        <v>-14.65193325204305</v>
-      </c>
-      <c r="S34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>-0.8631106462385558</v>
+      </c>
+      <c r="S34">
+        <v>-1.760746508528051</v>
+      </c>
+      <c r="T34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2924,34 +3309,37 @@
         <v>-3.288896781622597</v>
       </c>
       <c r="K35">
-        <v>-3.288896781622597</v>
+        <v>113.2600021362305</v>
       </c>
       <c r="L35">
-        <v>-0.4603738417135461</v>
+        <v>2.711531317845623</v>
       </c>
       <c r="M35">
-        <v>-2.991116020628026</v>
+        <v>2.02231198405846</v>
       </c>
       <c r="N35">
-        <v>1.57516499901329</v>
+        <v>3.310058617026731</v>
       </c>
       <c r="O35">
-        <v>-3.390575405008289</v>
+        <v>4.035553380890148</v>
       </c>
       <c r="P35">
-        <v>-4.287824390818895</v>
+        <v>12.47846427416725</v>
       </c>
       <c r="Q35">
-        <v>-13.20740338892833</v>
+        <v>8.406642382031686</v>
       </c>
       <c r="R35">
-        <v>-9.317435833246279</v>
-      </c>
-      <c r="S35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>5.232614898083201</v>
+      </c>
+      <c r="S35">
+        <v>4.733836383073246</v>
+      </c>
+      <c r="T35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2983,34 +3371,37 @@
         <v>0.1066691080729099</v>
       </c>
       <c r="K36">
-        <v>0.1066691080729099</v>
+        <v>112.4899978637695</v>
       </c>
       <c r="L36">
-        <v>-0.5650709673116872</v>
+        <v>-0.1154367604705511</v>
       </c>
       <c r="M36">
-        <v>1.660953229428119</v>
+        <v>1.154320183501093</v>
       </c>
       <c r="N36">
-        <v>0.5535738808768231</v>
+        <v>-2.637188020130166</v>
       </c>
       <c r="O36">
-        <v>1.642598957306918</v>
+        <v>6.259985127355402</v>
       </c>
       <c r="P36">
-        <v>-2.527261680636617</v>
+        <v>5.576272976505029</v>
       </c>
       <c r="Q36">
-        <v>-14.63007556871435</v>
+        <v>0.8790604152241305</v>
       </c>
       <c r="R36">
-        <v>-11.36470572128944</v>
-      </c>
-      <c r="S36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>5.656184480408235</v>
+      </c>
+      <c r="S36">
+        <v>7.813883153745844</v>
+      </c>
+      <c r="T36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3042,34 +3433,22 @@
         <v>-0.8599587904926431</v>
       </c>
       <c r="K37">
-        <v>-0.8599587904926431</v>
+        <v>171.3500061035156</v>
       </c>
       <c r="L37">
-        <v>1.326214241516466</v>
+        <v>32.70601965869094</v>
       </c>
       <c r="M37">
-        <v>-1.2315464414969</v>
+        <v>29.67782587773493</v>
       </c>
       <c r="N37">
-        <v>6.341621696887456</v>
-      </c>
-      <c r="O37">
-        <v>8.513318291690108</v>
-      </c>
-      <c r="P37">
-        <v>13.65196234795438</v>
-      </c>
-      <c r="Q37">
-        <v>8.595452868084429</v>
-      </c>
-      <c r="R37">
-        <v>7.896713539596667</v>
-      </c>
-      <c r="S37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>34.52602502857478</v>
+      </c>
+      <c r="T37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3101,34 +3480,22 @@
         <v>32.70601965869093</v>
       </c>
       <c r="K38">
-        <v>32.70601965869093</v>
+        <v>167.4400024414062</v>
       </c>
       <c r="L38">
-        <v>31.56480257712313</v>
+        <v>-2.281881250559905</v>
       </c>
       <c r="M38">
-        <v>32.55202323840196</v>
+        <v>0.04084742511617072</v>
       </c>
       <c r="N38">
-        <v>38.70002010173144</v>
-      </c>
-      <c r="O38">
-        <v>49.23358871184498</v>
-      </c>
-      <c r="P38">
-        <v>49.10373201678255</v>
-      </c>
-      <c r="Q38">
-        <v>43.95531198923182</v>
-      </c>
-      <c r="R38">
-        <v>38.41990858408879</v>
-      </c>
-      <c r="S38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>2.013420966065202</v>
+      </c>
+      <c r="T38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3160,34 +3527,19 @@
         <v>-2.281881250559903</v>
       </c>
       <c r="K39">
-        <v>-2.281881250559903</v>
+        <v>171.4199981689453</v>
       </c>
       <c r="L39">
-        <v>29.67782587773493</v>
+        <v>2.3769682689367</v>
       </c>
       <c r="M39">
-        <v>32.93109213911301</v>
-      </c>
-      <c r="N39">
-        <v>38.50608262617279</v>
-      </c>
-      <c r="O39">
-        <v>44.9822543411216</v>
-      </c>
-      <c r="P39">
-        <v>44.29507163076991</v>
-      </c>
-      <c r="Q39">
-        <v>40.07027033547317</v>
-      </c>
-      <c r="R39">
-        <v>34.99960016879029</v>
-      </c>
-      <c r="S39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>2.293356594541611</v>
+      </c>
+      <c r="T39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3219,31 +3571,16 @@
         <v>2.376968268936697</v>
       </c>
       <c r="K40">
-        <v>2.376968268936697</v>
+        <v>171.2799987792969</v>
       </c>
       <c r="L40">
-        <v>0.0408474251161639</v>
+        <v>-0.08167039502034015</v>
       </c>
       <c r="M40">
-        <v>34.52091168360673</v>
-      </c>
-      <c r="N40">
-        <v>38.80161795056301</v>
-      </c>
-      <c r="O40">
-        <v>50.71215173949728</v>
-      </c>
-      <c r="P40">
-        <v>46.10073765768423</v>
-      </c>
-      <c r="Q40">
-        <v>43.37571233634068</v>
-      </c>
-      <c r="R40">
-        <v>39.18479463449651</v>
-      </c>
-      <c r="S40" t="s">
-        <v>79</v>
+        <v>1.330065805420084</v>
+      </c>
+      <c r="T40" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/VolumeBreakouts_SNOW_3.xlsx
+++ b/VolumeBreakouts_SNOW_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Value</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Total Count</t>
   </si>
   <si>
+    <t>Average Peak Return (%)</t>
+  </si>
+  <si>
     <t>Period</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t>Positive Average Returns</t>
   </si>
   <si>
+    <t>Peak Average Returns</t>
+  </si>
+  <si>
     <t>Adj Close</t>
   </si>
   <si>
@@ -151,6 +157,30 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>1D Peak Return (%)</t>
+  </si>
+  <si>
+    <t>2D Peak Return (%)</t>
+  </si>
+  <si>
+    <t>5D Peak Return (%)</t>
+  </si>
+  <si>
+    <t>10D Peak Return (%)</t>
+  </si>
+  <si>
+    <t>15D Peak Return (%)</t>
+  </si>
+  <si>
+    <t>20D Peak Return (%)</t>
+  </si>
+  <si>
+    <t>25D Peak Return (%)</t>
+  </si>
+  <si>
+    <t>30D Peak Return (%)</t>
   </si>
   <si>
     <t>2021-03-04</t>
@@ -675,20 +705,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -711,10 +741,13 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>-1.153026742975003</v>
@@ -737,10 +770,13 @@
       <c r="H4">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>-1.153026742975003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>-2.004305749759645</v>
@@ -763,10 +799,13 @@
       <c r="H5">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>-0.1614577497237916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>-2.161393952055524</v>
@@ -789,10 +828,13 @@
       <c r="H6">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.703871918617811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>-3.125077864965331</v>
@@ -815,10 +857,13 @@
       <c r="H7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2.354501625543575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>-0.9592961707595928</v>
@@ -841,10 +886,13 @@
       <c r="H8">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>3.927376853488339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>-0.320501462601361</v>
@@ -867,10 +915,13 @@
       <c r="H9">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>5.38939606846735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>-0.715514411062993</v>
@@ -893,10 +944,13 @@
       <c r="H10">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>6.206406076096982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>-0.8804835573116699</v>
@@ -919,15 +973,18 @@
       <c r="H11">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I11">
+        <v>6.812901766861317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
@@ -950,10 +1007,13 @@
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>-2.942666003533379</v>
@@ -976,10 +1036,13 @@
       <c r="H18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>-2.942666003533379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>-3.728030497541244</v>
@@ -1002,10 +1065,13 @@
       <c r="H19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>-1.832961071066364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>-3.329741985183307</v>
@@ -1028,10 +1094,13 @@
       <c r="H20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>-0.1451271646254812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>-2.11217910159903</v>
@@ -1054,10 +1123,13 @@
       <c r="H21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>1.837802460598494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>-0.7799832064011277</v>
@@ -1080,10 +1152,13 @@
       <c r="H22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>3.036236159652507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>-1.397356599925012</v>
@@ -1106,10 +1181,13 @@
       <c r="H23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>4.15355935756741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>-2.19932179857494</v>
@@ -1132,10 +1210,13 @@
       <c r="H24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>4.757760740640524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>-0.6231276244777955</v>
@@ -1157,6 +1238,14 @@
       </c>
       <c r="H25">
         <v>17</v>
+      </c>
+      <c r="I25">
+        <v>5.569832211212734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1166,72 +1255,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1290,10 +1403,34 @@
         <v>-6.530118275837726</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>55</v>
+      </c>
+      <c r="U2">
+        <v>-3.722893282112826</v>
+      </c>
+      <c r="V2">
+        <v>-3.722893282112826</v>
+      </c>
+      <c r="W2">
+        <v>-3.722893282112826</v>
+      </c>
+      <c r="X2">
+        <v>-3.722893282112826</v>
+      </c>
+      <c r="Y2">
+        <v>-3.722893282112826</v>
+      </c>
+      <c r="Z2">
+        <v>-3.722893282112826</v>
+      </c>
+      <c r="AA2">
+        <v>-3.722893282112826</v>
+      </c>
+      <c r="AB2">
+        <v>-3.722893282112826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1352,10 +1489,34 @@
         <v>-4.44666441133872</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>56</v>
+      </c>
+      <c r="U3">
+        <v>-10.73707533187851</v>
+      </c>
+      <c r="V3">
+        <v>-4.050386529900016</v>
+      </c>
+      <c r="W3">
+        <v>-0.8009002641152394</v>
+      </c>
+      <c r="X3">
+        <v>-0.4046223826765354</v>
+      </c>
+      <c r="Y3">
+        <v>-0.4046223826765354</v>
+      </c>
+      <c r="Z3">
+        <v>-0.4046223826765354</v>
+      </c>
+      <c r="AA3">
+        <v>-0.4046223826765354</v>
+      </c>
+      <c r="AB3">
+        <v>-0.4046223826765354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1414,10 +1575,34 @@
         <v>5.247906649499014</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>57</v>
+      </c>
+      <c r="U4">
+        <v>7.491003489791001</v>
+      </c>
+      <c r="V4">
+        <v>7.491003489791001</v>
+      </c>
+      <c r="W4">
+        <v>11.57530182617017</v>
+      </c>
+      <c r="X4">
+        <v>11.57530182617017</v>
+      </c>
+      <c r="Y4">
+        <v>11.57530182617017</v>
+      </c>
+      <c r="Z4">
+        <v>11.57530182617017</v>
+      </c>
+      <c r="AA4">
+        <v>11.57530182617017</v>
+      </c>
+      <c r="AB4">
+        <v>11.57530182617017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1476,10 +1661,34 @@
         <v>24.79983910467924</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>58</v>
+      </c>
+      <c r="U5">
+        <v>3.102480515341482</v>
+      </c>
+      <c r="V5">
+        <v>3.102480515341482</v>
+      </c>
+      <c r="W5">
+        <v>3.102480515341482</v>
+      </c>
+      <c r="X5">
+        <v>15.37229873081141</v>
+      </c>
+      <c r="Y5">
+        <v>22.67313770461812</v>
+      </c>
+      <c r="Z5">
+        <v>22.67313770461812</v>
+      </c>
+      <c r="AA5">
+        <v>25.38531420935053</v>
+      </c>
+      <c r="AB5">
+        <v>25.38531420935053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1538,10 +1747,34 @@
         <v>17.94370764803274</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>59</v>
+      </c>
+      <c r="U6">
+        <v>1.266721431371602</v>
+      </c>
+      <c r="V6">
+        <v>6.447922725814485</v>
+      </c>
+      <c r="W6">
+        <v>11.14338458229438</v>
+      </c>
+      <c r="X6">
+        <v>16.74364849924484</v>
+      </c>
+      <c r="Y6">
+        <v>19.3247301154891</v>
+      </c>
+      <c r="Z6">
+        <v>19.3247301154891</v>
+      </c>
+      <c r="AA6">
+        <v>19.3247301154891</v>
+      </c>
+      <c r="AB6">
+        <v>19.64855156317385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1600,10 +1833,34 @@
         <v>8.937386990660489</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>60</v>
+      </c>
+      <c r="U7">
+        <v>-2.904342359557206</v>
+      </c>
+      <c r="V7">
+        <v>-1.770343237178789</v>
+      </c>
+      <c r="W7">
+        <v>-0.8035901569448811</v>
+      </c>
+      <c r="X7">
+        <v>2.210896823445567</v>
+      </c>
+      <c r="Y7">
+        <v>2.210896823445567</v>
+      </c>
+      <c r="Z7">
+        <v>2.488275037890223</v>
+      </c>
+      <c r="AA7">
+        <v>2.488275037890223</v>
+      </c>
+      <c r="AB7">
+        <v>9.928613886961095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1662,10 +1919,34 @@
         <v>13.88010466785564</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>61</v>
+      </c>
+      <c r="U8">
+        <v>-3.939135562588652</v>
+      </c>
+      <c r="V8">
+        <v>-2.667087179710453</v>
+      </c>
+      <c r="W8">
+        <v>-1.609384632922032</v>
+      </c>
+      <c r="X8">
+        <v>2.438682538782087</v>
+      </c>
+      <c r="Y8">
+        <v>2.438682538782087</v>
+      </c>
+      <c r="Z8">
+        <v>7.266857885000263</v>
+      </c>
+      <c r="AA8">
+        <v>11.77876910284343</v>
+      </c>
+      <c r="AB8">
+        <v>13.88010466785564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1724,10 +2005,34 @@
         <v>10.50361039398882</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>62</v>
+      </c>
+      <c r="U9">
+        <v>3.663699899396252</v>
+      </c>
+      <c r="V9">
+        <v>5.512423950672921</v>
+      </c>
+      <c r="W9">
+        <v>14.4710670096952</v>
+      </c>
+      <c r="X9">
+        <v>16.24854103965752</v>
+      </c>
+      <c r="Y9">
+        <v>19.9872445753683</v>
+      </c>
+      <c r="Z9">
+        <v>21.52846973928283</v>
+      </c>
+      <c r="AA9">
+        <v>21.52846973928283</v>
+      </c>
+      <c r="AB9">
+        <v>21.52846973928283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1786,10 +2091,34 @@
         <v>2.705883176243357</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>63</v>
+      </c>
+      <c r="U10">
+        <v>-2.473307367166662</v>
+      </c>
+      <c r="V10">
+        <v>-2.427440026552671</v>
+      </c>
+      <c r="W10">
+        <v>0.5339726235558986</v>
+      </c>
+      <c r="X10">
+        <v>4.818840000159956</v>
+      </c>
+      <c r="Y10">
+        <v>6.165228396962438</v>
+      </c>
+      <c r="Z10">
+        <v>6.165228396962438</v>
+      </c>
+      <c r="AA10">
+        <v>6.165228396962438</v>
+      </c>
+      <c r="AB10">
+        <v>6.165228396962438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1848,10 +2177,34 @@
         <v>7.721373263914827</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>64</v>
+      </c>
+      <c r="U11">
+        <v>-1.094140635144638</v>
+      </c>
+      <c r="V11">
+        <v>0.8345682582499988</v>
+      </c>
+      <c r="W11">
+        <v>4.517824782077824</v>
+      </c>
+      <c r="X11">
+        <v>6.482661433573106</v>
+      </c>
+      <c r="Y11">
+        <v>6.482661433573106</v>
+      </c>
+      <c r="Z11">
+        <v>6.482661433573106</v>
+      </c>
+      <c r="AA11">
+        <v>6.482661433573106</v>
+      </c>
+      <c r="AB11">
+        <v>7.721373263914827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1910,10 +2263,34 @@
         <v>9.615864225134271</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>65</v>
+      </c>
+      <c r="U12">
+        <v>-3.943612438087981</v>
+      </c>
+      <c r="V12">
+        <v>-2.642502819661716</v>
+      </c>
+      <c r="W12">
+        <v>-0.4027223798417586</v>
+      </c>
+      <c r="X12">
+        <v>-0.4027223798417586</v>
+      </c>
+      <c r="Y12">
+        <v>-0.4027223798417586</v>
+      </c>
+      <c r="Z12">
+        <v>3.336437403509899</v>
+      </c>
+      <c r="AA12">
+        <v>5.96344508301103</v>
+      </c>
+      <c r="AB12">
+        <v>9.615864225134271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1972,10 +2349,34 @@
         <v>-19.62085119377112</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>66</v>
+      </c>
+      <c r="U13">
+        <v>-4.210617708208481</v>
+      </c>
+      <c r="V13">
+        <v>-4.210617708208481</v>
+      </c>
+      <c r="W13">
+        <v>2.775618972433126</v>
+      </c>
+      <c r="X13">
+        <v>3.042076022041979</v>
+      </c>
+      <c r="Y13">
+        <v>3.042076022041979</v>
+      </c>
+      <c r="Z13">
+        <v>3.042076022041979</v>
+      </c>
+      <c r="AA13">
+        <v>3.042076022041979</v>
+      </c>
+      <c r="AB13">
+        <v>3.042076022041979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2034,10 +2435,34 @@
         <v>-18.99580577865884</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>67</v>
+      </c>
+      <c r="U14">
+        <v>-15.36514329737419</v>
+      </c>
+      <c r="V14">
+        <v>-15.36514329737419</v>
+      </c>
+      <c r="W14">
+        <v>-15.36514329737419</v>
+      </c>
+      <c r="X14">
+        <v>-15.36514329737419</v>
+      </c>
+      <c r="Y14">
+        <v>-15.01000995922919</v>
+      </c>
+      <c r="Z14">
+        <v>-9.452568680979763</v>
+      </c>
+      <c r="AA14">
+        <v>-8.863200913325191</v>
+      </c>
+      <c r="AB14">
+        <v>-8.863200913325191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2096,10 +2521,34 @@
         <v>-11.33380899268631</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>68</v>
+      </c>
+      <c r="U15">
+        <v>-6.414610348145183</v>
+      </c>
+      <c r="V15">
+        <v>-6.414610348145183</v>
+      </c>
+      <c r="W15">
+        <v>-6.414610348145183</v>
+      </c>
+      <c r="X15">
+        <v>-6.414610348145183</v>
+      </c>
+      <c r="Y15">
+        <v>1.584681271338686</v>
+      </c>
+      <c r="Z15">
+        <v>6.985980536564185</v>
+      </c>
+      <c r="AA15">
+        <v>7.682345829324569</v>
+      </c>
+      <c r="AB15">
+        <v>7.682345829324569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2158,10 +2607,34 @@
         <v>14.69242048552551</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>69</v>
+      </c>
+      <c r="U16">
+        <v>2.452681810332535</v>
+      </c>
+      <c r="V16">
+        <v>2.452681810332535</v>
+      </c>
+      <c r="W16">
+        <v>9.022083727187781</v>
+      </c>
+      <c r="X16">
+        <v>9.022083727187781</v>
+      </c>
+      <c r="Y16">
+        <v>9.022083727187781</v>
+      </c>
+      <c r="Z16">
+        <v>19.5031507352919</v>
+      </c>
+      <c r="AA16">
+        <v>22.16087552715324</v>
+      </c>
+      <c r="AB16">
+        <v>25.93059056205411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2220,10 +2693,34 @@
         <v>-10.79070348864057</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>70</v>
+      </c>
+      <c r="U17">
+        <v>0.7285550965273117</v>
+      </c>
+      <c r="V17">
+        <v>0.7285550965273117</v>
+      </c>
+      <c r="W17">
+        <v>0.7285550965273117</v>
+      </c>
+      <c r="X17">
+        <v>0.7285550965273117</v>
+      </c>
+      <c r="Y17">
+        <v>0.8661080898791503</v>
+      </c>
+      <c r="Z17">
+        <v>0.8661080898791503</v>
+      </c>
+      <c r="AA17">
+        <v>0.8661080898791503</v>
+      </c>
+      <c r="AB17">
+        <v>0.8661080898791503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2282,10 +2779,34 @@
         <v>-19.55389325238326</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>71</v>
+      </c>
+      <c r="U18">
+        <v>-5.705332889098915</v>
+      </c>
+      <c r="V18">
+        <v>-5.705332889098915</v>
+      </c>
+      <c r="W18">
+        <v>-5.705332889098915</v>
+      </c>
+      <c r="X18">
+        <v>-1.264478233323864</v>
+      </c>
+      <c r="Y18">
+        <v>0.136558092409866</v>
+      </c>
+      <c r="Z18">
+        <v>0.136558092409866</v>
+      </c>
+      <c r="AA18">
+        <v>0.136558092409866</v>
+      </c>
+      <c r="AB18">
+        <v>0.136558092409866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2344,10 +2865,34 @@
         <v>-5.401189579367945</v>
       </c>
       <c r="T19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="U19">
+        <v>-2.791474928839697</v>
+      </c>
+      <c r="V19">
+        <v>-2.791474928839697</v>
+      </c>
+      <c r="W19">
+        <v>-2.791474928839697</v>
+      </c>
+      <c r="X19">
+        <v>-2.051407777881788</v>
+      </c>
+      <c r="Y19">
+        <v>-2.051407777881788</v>
+      </c>
+      <c r="Z19">
+        <v>-2.051407777881788</v>
+      </c>
+      <c r="AA19">
+        <v>-2.051407777881788</v>
+      </c>
+      <c r="AB19">
+        <v>-2.051407777881788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2406,10 +2951,34 @@
         <v>5.063576408432038</v>
       </c>
       <c r="T20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>73</v>
+      </c>
+      <c r="U20">
+        <v>5.048789098673429</v>
+      </c>
+      <c r="V20">
+        <v>5.048789098673429</v>
+      </c>
+      <c r="W20">
+        <v>5.447956226856056</v>
+      </c>
+      <c r="X20">
+        <v>5.447956226856056</v>
+      </c>
+      <c r="Y20">
+        <v>5.447956226856056</v>
+      </c>
+      <c r="Z20">
+        <v>5.447956226856056</v>
+      </c>
+      <c r="AA20">
+        <v>14.89502814777384</v>
+      </c>
+      <c r="AB20">
+        <v>14.89502814777384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2468,10 +3037,34 @@
         <v>16.32073476571245</v>
       </c>
       <c r="T21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>74</v>
+      </c>
+      <c r="U21">
+        <v>1.419776075135427</v>
+      </c>
+      <c r="V21">
+        <v>7.261165552338027</v>
+      </c>
+      <c r="W21">
+        <v>18.45717150688662</v>
+      </c>
+      <c r="X21">
+        <v>23.19653621060863</v>
+      </c>
+      <c r="Y21">
+        <v>29.11905280174303</v>
+      </c>
+      <c r="Z21">
+        <v>29.11905280174303</v>
+      </c>
+      <c r="AA21">
+        <v>29.11905280174303</v>
+      </c>
+      <c r="AB21">
+        <v>29.11905280174303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2530,10 +3123,34 @@
         <v>9.331151801420186</v>
       </c>
       <c r="T22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>75</v>
+      </c>
+      <c r="U22">
+        <v>1.161101936295663</v>
+      </c>
+      <c r="V22">
+        <v>5.956704201232939</v>
+      </c>
+      <c r="W22">
+        <v>10.1959364708034</v>
+      </c>
+      <c r="X22">
+        <v>10.1959364708034</v>
+      </c>
+      <c r="Y22">
+        <v>15.49346578533073</v>
+      </c>
+      <c r="Z22">
+        <v>15.49346578533073</v>
+      </c>
+      <c r="AA22">
+        <v>15.49346578533073</v>
+      </c>
+      <c r="AB22">
+        <v>15.49346578533073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2592,10 +3209,34 @@
         <v>21.75220270846601</v>
       </c>
       <c r="T23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>76</v>
+      </c>
+      <c r="U23">
+        <v>-0.6204207856884671</v>
+      </c>
+      <c r="V23">
+        <v>-0.6204207856884671</v>
+      </c>
+      <c r="W23">
+        <v>3.94183931655316</v>
+      </c>
+      <c r="X23">
+        <v>4.487051497574009</v>
+      </c>
+      <c r="Y23">
+        <v>9.870275914695368</v>
+      </c>
+      <c r="Z23">
+        <v>18.00463395929077</v>
+      </c>
+      <c r="AA23">
+        <v>23.17477848603597</v>
+      </c>
+      <c r="AB23">
+        <v>25.87578579365398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2654,10 +3295,34 @@
         <v>0.1811656063238772</v>
       </c>
       <c r="T24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>77</v>
+      </c>
+      <c r="U24">
+        <v>-0.9111208023287541</v>
+      </c>
+      <c r="V24">
+        <v>0.3303550725556749</v>
+      </c>
+      <c r="W24">
+        <v>0.3303550725556749</v>
+      </c>
+      <c r="X24">
+        <v>7.022596147123091</v>
+      </c>
+      <c r="Y24">
+        <v>7.022596147123091</v>
+      </c>
+      <c r="Z24">
+        <v>7.219737628168793</v>
+      </c>
+      <c r="AA24">
+        <v>7.219737628168793</v>
+      </c>
+      <c r="AB24">
+        <v>7.219737628168793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2716,10 +3381,34 @@
         <v>-30.71738865064538</v>
       </c>
       <c r="T25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>78</v>
+      </c>
+      <c r="U25">
+        <v>-18.1391309655231</v>
+      </c>
+      <c r="V25">
+        <v>-18.1391309655231</v>
+      </c>
+      <c r="W25">
+        <v>-18.1391309655231</v>
+      </c>
+      <c r="X25">
+        <v>-18.1391309655231</v>
+      </c>
+      <c r="Y25">
+        <v>-18.1391309655231</v>
+      </c>
+      <c r="Z25">
+        <v>-18.1391309655231</v>
+      </c>
+      <c r="AA25">
+        <v>-18.1391309655231</v>
+      </c>
+      <c r="AB25">
+        <v>-18.1391309655231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2778,10 +3467,34 @@
         <v>-15.78500181293347</v>
       </c>
       <c r="T26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>79</v>
+      </c>
+      <c r="U26">
+        <v>-0.8285519272933447</v>
+      </c>
+      <c r="V26">
+        <v>-0.8285519272933447</v>
+      </c>
+      <c r="W26">
+        <v>-0.8285519272933447</v>
+      </c>
+      <c r="X26">
+        <v>-0.8285519272933447</v>
+      </c>
+      <c r="Y26">
+        <v>-0.8285519272933447</v>
+      </c>
+      <c r="Z26">
+        <v>-0.8285519272933447</v>
+      </c>
+      <c r="AA26">
+        <v>-0.8285519272933447</v>
+      </c>
+      <c r="AB26">
+        <v>-0.8285519272933447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2840,10 +3553,34 @@
         <v>-18.60540127787455</v>
       </c>
       <c r="T27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>80</v>
+      </c>
+      <c r="U27">
+        <v>-4.707588093110647</v>
+      </c>
+      <c r="V27">
+        <v>-4.707588093110647</v>
+      </c>
+      <c r="W27">
+        <v>-4.707588093110647</v>
+      </c>
+      <c r="X27">
+        <v>-4.707588093110647</v>
+      </c>
+      <c r="Y27">
+        <v>-4.707588093110647</v>
+      </c>
+      <c r="Z27">
+        <v>-4.707588093110647</v>
+      </c>
+      <c r="AA27">
+        <v>-4.707588093110647</v>
+      </c>
+      <c r="AB27">
+        <v>-4.707588093110647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2902,10 +3639,34 @@
         <v>-15.52857346224365</v>
       </c>
       <c r="T28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>81</v>
+      </c>
+      <c r="U28">
+        <v>-5.721347212288673</v>
+      </c>
+      <c r="V28">
+        <v>-5.721347212288673</v>
+      </c>
+      <c r="W28">
+        <v>-5.333552871924959</v>
+      </c>
+      <c r="X28">
+        <v>-5.333552871924959</v>
+      </c>
+      <c r="Y28">
+        <v>-5.333552871924959</v>
+      </c>
+      <c r="Z28">
+        <v>-5.333552871924959</v>
+      </c>
+      <c r="AA28">
+        <v>-5.333552871924959</v>
+      </c>
+      <c r="AB28">
+        <v>-5.333552871924959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2964,10 +3725,34 @@
         <v>-11.07516814231797</v>
       </c>
       <c r="T29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>82</v>
+      </c>
+      <c r="U29">
+        <v>1.022125638723643</v>
+      </c>
+      <c r="V29">
+        <v>1.022125638723643</v>
+      </c>
+      <c r="W29">
+        <v>1.022125638723643</v>
+      </c>
+      <c r="X29">
+        <v>1.022125638723643</v>
+      </c>
+      <c r="Y29">
+        <v>1.022125638723643</v>
+      </c>
+      <c r="Z29">
+        <v>1.022125638723643</v>
+      </c>
+      <c r="AA29">
+        <v>1.022125638723643</v>
+      </c>
+      <c r="AB29">
+        <v>1.022125638723643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3026,10 +3811,34 @@
         <v>0.02203997628153442</v>
       </c>
       <c r="T30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>83</v>
+      </c>
+      <c r="U30">
+        <v>0.5507416950635383</v>
+      </c>
+      <c r="V30">
+        <v>0.6021496316063344</v>
+      </c>
+      <c r="W30">
+        <v>0.6021496316063344</v>
+      </c>
+      <c r="X30">
+        <v>0.6021496316063344</v>
+      </c>
+      <c r="Y30">
+        <v>0.6021496316063344</v>
+      </c>
+      <c r="Z30">
+        <v>4.839192209658328</v>
+      </c>
+      <c r="AA30">
+        <v>5.022772774679507</v>
+      </c>
+      <c r="AB30">
+        <v>5.022772774679507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3088,10 +3897,34 @@
         <v>-3.306268079972921</v>
       </c>
       <c r="T31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>84</v>
+      </c>
+      <c r="U31">
+        <v>-1.675478525943408</v>
+      </c>
+      <c r="V31">
+        <v>-1.675478525943408</v>
+      </c>
+      <c r="W31">
+        <v>-1.675478525943408</v>
+      </c>
+      <c r="X31">
+        <v>-1.675478525943408</v>
+      </c>
+      <c r="Y31">
+        <v>-0.2755194993562538</v>
+      </c>
+      <c r="Z31">
+        <v>6.500864861707914</v>
+      </c>
+      <c r="AA31">
+        <v>6.500864861707914</v>
+      </c>
+      <c r="AB31">
+        <v>6.500864861707914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3150,10 +3983,34 @@
         <v>-18.20672055559799</v>
       </c>
       <c r="T32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>85</v>
+      </c>
+      <c r="U32">
+        <v>-14.69717076331907</v>
+      </c>
+      <c r="V32">
+        <v>-14.21590204006375</v>
+      </c>
+      <c r="W32">
+        <v>-12.63142149191327</v>
+      </c>
+      <c r="X32">
+        <v>-12.63142149191327</v>
+      </c>
+      <c r="Y32">
+        <v>-12.63142149191327</v>
+      </c>
+      <c r="Z32">
+        <v>-12.63142149191327</v>
+      </c>
+      <c r="AA32">
+        <v>-12.63142149191327</v>
+      </c>
+      <c r="AB32">
+        <v>-12.63142149191327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3212,10 +4069,34 @@
         <v>-0.4253084520990769</v>
       </c>
       <c r="T33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U33">
+        <v>0.5641884654493585</v>
+      </c>
+      <c r="V33">
+        <v>2.421665599946493</v>
+      </c>
+      <c r="W33">
+        <v>2.421665599946493</v>
+      </c>
+      <c r="X33">
+        <v>2.421665599946493</v>
+      </c>
+      <c r="Y33">
+        <v>2.421665599946493</v>
+      </c>
+      <c r="Z33">
+        <v>2.421665599946493</v>
+      </c>
+      <c r="AA33">
+        <v>2.421665599946493</v>
+      </c>
+      <c r="AB33">
+        <v>2.421665599946493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3274,10 +4155,34 @@
         <v>-1.760746508528051</v>
       </c>
       <c r="T34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>87</v>
+      </c>
+      <c r="U34">
+        <v>1.847056256149578</v>
+      </c>
+      <c r="V34">
+        <v>1.847056256149578</v>
+      </c>
+      <c r="W34">
+        <v>1.847056256149578</v>
+      </c>
+      <c r="X34">
+        <v>1.847056256149578</v>
+      </c>
+      <c r="Y34">
+        <v>1.847056256149578</v>
+      </c>
+      <c r="Z34">
+        <v>1.847056256149578</v>
+      </c>
+      <c r="AA34">
+        <v>1.847056256149578</v>
+      </c>
+      <c r="AB34">
+        <v>1.847056256149578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3336,10 +4241,34 @@
         <v>4.733836383073246</v>
       </c>
       <c r="T35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>88</v>
+      </c>
+      <c r="U35">
+        <v>2.711531317845623</v>
+      </c>
+      <c r="V35">
+        <v>2.711531317845623</v>
+      </c>
+      <c r="W35">
+        <v>3.310058617026731</v>
+      </c>
+      <c r="X35">
+        <v>4.16251392674162</v>
+      </c>
+      <c r="Y35">
+        <v>12.47846427416725</v>
+      </c>
+      <c r="Z35">
+        <v>12.47846427416725</v>
+      </c>
+      <c r="AA35">
+        <v>12.47846427416725</v>
+      </c>
+      <c r="AB35">
+        <v>12.47846427416725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3398,10 +4327,34 @@
         <v>7.813883153745844</v>
       </c>
       <c r="T36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>89</v>
+      </c>
+      <c r="U36">
+        <v>-0.1154367604705511</v>
+      </c>
+      <c r="V36">
+        <v>1.154320183501093</v>
+      </c>
+      <c r="W36">
+        <v>1.988987576931589</v>
+      </c>
+      <c r="X36">
+        <v>6.259985127355402</v>
+      </c>
+      <c r="Y36">
+        <v>10.13141160934764</v>
+      </c>
+      <c r="Z36">
+        <v>10.13141160934764</v>
+      </c>
+      <c r="AA36">
+        <v>10.13141160934764</v>
+      </c>
+      <c r="AB36">
+        <v>10.13141160934764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3445,10 +4398,19 @@
         <v>34.52602502857478</v>
       </c>
       <c r="T37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>90</v>
+      </c>
+      <c r="U37">
+        <v>32.70601965869094</v>
+      </c>
+      <c r="V37">
+        <v>32.70601965869094</v>
+      </c>
+      <c r="W37">
+        <v>34.52602502857478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3492,10 +4454,19 @@
         <v>2.013420966065202</v>
       </c>
       <c r="T38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="U38">
+        <v>-2.281881250559905</v>
+      </c>
+      <c r="V38">
+        <v>0.04084742511617072</v>
+      </c>
+      <c r="W38">
+        <v>2.013420966065202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3536,10 +4507,16 @@
         <v>2.293356594541611</v>
       </c>
       <c r="T39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>92</v>
+      </c>
+      <c r="U39">
+        <v>2.3769682689367</v>
+      </c>
+      <c r="V39">
+        <v>2.3769682689367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3580,7 +4557,13 @@
         <v>1.330065805420084</v>
       </c>
       <c r="T40" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="U40">
+        <v>-0.08167039502034015</v>
+      </c>
+      <c r="V40">
+        <v>1.330065805420084</v>
       </c>
     </row>
   </sheetData>
